--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_361__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_361__Reeval_LHS_Modell_1.3.xlsx
@@ -5879,7 +5879,7 @@
                   <c:v>69.42676544189453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.48470306396484</c:v>
+                  <c:v>64.48469543457031</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62.27645874023438</c:v>
@@ -5912,25 +5912,25 @@
                   <c:v>68.79335021972656</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.62378692626953</c:v>
+                  <c:v>68.62379455566406</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>68.80673980712891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.6741943359375</c:v>
+                  <c:v>70.67420196533203</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>66.76377105712891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.84809875488281</c:v>
+                  <c:v>68.84809112548828</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.66785430908203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.54218292236328</c:v>
+                  <c:v>72.54219055175781</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>70.25984954833984</c:v>
@@ -5951,7 +5951,7 @@
                   <c:v>64.54901123046875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.99163055419922</c:v>
+                  <c:v>64.99163818359375</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>65.81304931640625</c:v>
@@ -5987,7 +5987,7 @@
                   <c:v>72.18294525146484</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67.70803070068359</c:v>
+                  <c:v>67.70803833007812</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>75.76850891113281</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>70.99227905273438</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>65.40331268310547</c:v>
+                  <c:v>65.40330505371094</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>70.63336944580078</c:v>
@@ -6068,13 +6068,13 @@
                   <c:v>71.08971405029297</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>71.25032043457031</c:v>
+                  <c:v>71.25032806396484</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>69.07709503173828</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.05179595947266</c:v>
+                  <c:v>68.05180358886719</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>69.91233062744141</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>61.44445037841797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>68.10594177246094</c:v>
+                  <c:v>68.10594940185547</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>68.20122528076172</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>62.60801696777344</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>75.82425689697266</c:v>
+                  <c:v>75.82426452636719</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>71.45941925048828</c:v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>64.48470306396484</v>
+        <v>64.48469543457031</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>68.62378692626953</v>
+        <v>68.62379455566406</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>72.40949999999999</v>
       </c>
       <c r="F17">
-        <v>70.6741943359375</v>
+        <v>70.67420196533203</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>69.9408</v>
       </c>
       <c r="F19">
-        <v>68.84809875488281</v>
+        <v>68.84809112548828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>72.54218292236328</v>
+        <v>72.54219055175781</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>64.99163055419922</v>
+        <v>64.99163818359375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>67.70803070068359</v>
+        <v>67.70803833007812</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>65.40331268310547</v>
+        <v>65.40330505371094</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>71.25032043457031</v>
+        <v>71.25032806396484</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>68.05179595947266</v>
+        <v>68.05180358886719</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>68.10594177246094</v>
+        <v>68.10594940185547</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>63.2242</v>
       </c>
       <c r="F88">
-        <v>75.82425689697266</v>
+        <v>75.82426452636719</v>
       </c>
     </row>
     <row r="89" spans="1:6">
